--- a/config_6.29/activity_ty_task_config.xlsx
+++ b/config_6.29/activity_ty_task_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="base|基础" sheetId="6" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="201">
   <si>
     <t>index|索引</t>
   </si>
@@ -140,6 +140,15 @@
     <t>月末返利</t>
   </si>
   <si>
+    <t>act_qyzl_cjj</t>
+  </si>
+  <si>
+    <t>qyzl_bg_1</t>
+  </si>
+  <si>
+    <t>七月赠礼_cjj</t>
+  </si>
+  <si>
     <t>tge_index|标签</t>
   </si>
   <si>
@@ -180,6 +189,9 @@
   </si>
   <si>
     <t>21,22,23,24,25,26,27,28,29</t>
+  </si>
+  <si>
+    <t>38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,59</t>
   </si>
   <si>
     <t>id|</t>
@@ -551,6 +563,132 @@
     <t>"no_goto_ui","请先完成任务",</t>
   </si>
   <si>
+    <t>累计消耗10万金币</t>
+  </si>
+  <si>
+    <t>500,</t>
+  </si>
+  <si>
+    <t>累计消耗30万金币</t>
+  </si>
+  <si>
+    <t>1000,</t>
+  </si>
+  <si>
+    <t>累计消耗100万金币</t>
+  </si>
+  <si>
+    <t>"shop_gold_sum",</t>
+  </si>
+  <si>
+    <t>28,</t>
+  </si>
+  <si>
+    <t>累计消耗300万金币</t>
+  </si>
+  <si>
+    <t>3,</t>
+  </si>
+  <si>
+    <t>累计消耗1000万金币</t>
+  </si>
+  <si>
+    <t>6,</t>
+  </si>
+  <si>
+    <t>累计消耗2000万金币</t>
+  </si>
+  <si>
+    <t>188,</t>
+  </si>
+  <si>
+    <t>累计消耗3500万金币</t>
+  </si>
+  <si>
+    <t>40,</t>
+  </si>
+  <si>
+    <t>累计消耗8000万金币</t>
+  </si>
+  <si>
+    <t>60,</t>
+  </si>
+  <si>
+    <t>累计消耗2亿金币</t>
+  </si>
+  <si>
+    <t>688,</t>
+  </si>
+  <si>
+    <t>累计消耗8亿金币</t>
+  </si>
+  <si>
+    <t>80,</t>
+  </si>
+  <si>
+    <t>累计消耗20亿金币</t>
+  </si>
+  <si>
+    <t>200,</t>
+  </si>
+  <si>
+    <t>累计消耗40亿金币</t>
+  </si>
+  <si>
+    <t>累计消耗80亿金币</t>
+  </si>
+  <si>
+    <t>累计消耗200亿金币</t>
+  </si>
+  <si>
+    <t>2000,</t>
+  </si>
+  <si>
+    <t>商城累计充值6元</t>
+  </si>
+  <si>
+    <t>商城累计充值48元</t>
+  </si>
+  <si>
+    <t>8000,</t>
+  </si>
+  <si>
+    <t>商城累计充值198元</t>
+  </si>
+  <si>
+    <t>18888,</t>
+  </si>
+  <si>
+    <t>商城累计充值888元</t>
+  </si>
+  <si>
+    <t>12000,</t>
+  </si>
+  <si>
+    <t>商城累计充值1888元</t>
+  </si>
+  <si>
+    <t>21888,</t>
+  </si>
+  <si>
+    <t>商城累计充值5888元</t>
+  </si>
+  <si>
+    <t>20000,</t>
+  </si>
+  <si>
+    <t>商城累计充值10000元</t>
+  </si>
+  <si>
+    <t>48888,</t>
+  </si>
+  <si>
+    <t>商城累计充值18888元</t>
+  </si>
+  <si>
+    <t>50000,</t>
+  </si>
+  <si>
     <t>"美的智能风扇",</t>
   </si>
   <si>
@@ -565,9 +703,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -615,9 +753,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -630,8 +768,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -645,17 +821,32 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -675,15 +866,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -699,56 +884,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -821,49 +959,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -881,13 +1001,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -899,49 +1091,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -953,25 +1109,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1007,21 +1145,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1032,39 +1155,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1086,11 +1176,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1103,16 +1191,66 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1121,133 +1259,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -1639,10 +1777,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -1819,6 +1957,23 @@
         <v>8</v>
       </c>
     </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1829,10 +1984,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -1849,25 +2004,25 @@
   <sheetData>
     <row r="1" s="21" customFormat="1" spans="1:7">
       <c r="A1" s="21" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1888,7 +2043,7 @@
       </c>
       <c r="F2" s="26"/>
       <c r="G2" s="26" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1909,7 +2064,7 @@
       </c>
       <c r="F3" s="26"/>
       <c r="G3" s="26" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1917,7 +2072,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C4" s="28">
         <v>0</v>
@@ -1936,7 +2091,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C5" s="29">
         <v>0</v>
@@ -1955,7 +2110,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C6" s="28">
         <v>0</v>
@@ -1974,7 +2129,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C7" s="29">
         <v>0</v>
@@ -2023,7 +2178,27 @@
         <v>1</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>41</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2038,10 +2213,10 @@
   <sheetPr/>
   <dimension ref="A1:S107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I42" sqref="I42"/>
+      <selection pane="bottomLeft" activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -2070,61 +2245,61 @@
   <sheetData>
     <row r="1" ht="32.25" customHeight="1" spans="1:19">
       <c r="A1" s="4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="Q1" s="19" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="R1" s="19" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="S1" s="19" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:19">
@@ -2135,22 +2310,22 @@
         <v>1000619</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="I2" s="5"/>
       <c r="M2" s="8"/>
@@ -2168,22 +2343,22 @@
         <v>1000620</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>63</v>
-      </c>
       <c r="G3" s="9" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="8"/>
@@ -2203,22 +2378,22 @@
         <v>1000621</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>69</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>65</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="8"/>
@@ -2236,22 +2411,22 @@
         <v>1000622</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D5" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>68</v>
-      </c>
       <c r="H5" s="5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="8"/>
@@ -2269,22 +2444,22 @@
         <v>1000623</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="8"/>
@@ -2302,22 +2477,22 @@
         <v>1000624</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="8"/>
@@ -2336,22 +2511,22 @@
         <v>1000625</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I8" s="5"/>
     </row>
@@ -2363,22 +2538,22 @@
         <v>1000626</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I9" s="5"/>
     </row>
@@ -2390,22 +2565,22 @@
         <v>1000627</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I10" s="5"/>
     </row>
@@ -2420,19 +2595,19 @@
         <v>4</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G11" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="H11" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>77</v>
       </c>
       <c r="I11" s="5"/>
     </row>
@@ -2444,22 +2619,22 @@
         <v>1000629</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I12" s="5"/>
     </row>
@@ -2471,22 +2646,22 @@
         <v>1000630</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I13" s="5"/>
     </row>
@@ -2498,22 +2673,22 @@
         <v>1000631</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I14" s="5"/>
     </row>
@@ -2525,22 +2700,22 @@
         <v>1000632</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D15" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="G15" s="9" t="s">
+      <c r="H15" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>77</v>
       </c>
       <c r="I15" s="5"/>
     </row>
@@ -2552,22 +2727,22 @@
         <v>1000633</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I16" s="5"/>
     </row>
@@ -2579,22 +2754,22 @@
         <v>1000634</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G17" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="H17" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>77</v>
       </c>
       <c r="I17" s="5"/>
     </row>
@@ -2606,22 +2781,22 @@
         <v>1000635</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I18" s="5"/>
     </row>
@@ -2633,22 +2808,22 @@
         <v>1000636</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G19" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="H19" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>77</v>
       </c>
       <c r="I19" s="5"/>
     </row>
@@ -2660,22 +2835,22 @@
         <v>1000637</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G20" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="H20" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>77</v>
       </c>
       <c r="I20" s="5"/>
     </row>
@@ -2690,19 +2865,19 @@
         <v>1</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G21" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="H21" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>77</v>
       </c>
       <c r="I21" s="5"/>
     </row>
@@ -2717,26 +2892,26 @@
         <v>3</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="I22" s="15"/>
       <c r="L22" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="O22" s="12"/>
     </row>
@@ -2751,26 +2926,26 @@
         <v>3</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
       </c>
       <c r="F23" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H23" s="5" t="s">
         <v>101</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>97</v>
       </c>
       <c r="I23" s="15"/>
       <c r="L23" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="O23" s="12"/>
     </row>
@@ -2785,26 +2960,26 @@
         <v>3</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="I24" s="15"/>
       <c r="L24" s="12" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="M24" s="12" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="O24" s="12"/>
     </row>
@@ -2819,26 +2994,26 @@
         <v>3</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="I25" s="15"/>
       <c r="L25" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" s="2" customFormat="1" spans="1:13">
@@ -2852,26 +3027,26 @@
         <v>3</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="I26" s="15"/>
       <c r="L26" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" s="2" customFormat="1" spans="1:13">
@@ -2885,26 +3060,26 @@
         <v>3</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="I27" s="15"/>
       <c r="L27" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28" s="2" customFormat="1" spans="1:13">
@@ -2918,26 +3093,26 @@
         <v>3</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="I28" s="18"/>
       <c r="L28" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" s="2" customFormat="1" spans="1:9">
@@ -2951,19 +3126,19 @@
         <v>3</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="I29" s="18"/>
     </row>
@@ -2978,19 +3153,19 @@
         <v>3</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="I30" s="18"/>
     </row>
@@ -3005,19 +3180,19 @@
         <v>1</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="H31" s="15" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="I31" s="18"/>
       <c r="M31" s="12"/>
@@ -3034,19 +3209,19 @@
         <v>3</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E32" s="1">
         <v>1</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I32" s="18"/>
       <c r="M32" s="12"/>
@@ -3063,19 +3238,19 @@
         <v>88</v>
       </c>
       <c r="D33" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
+      <c r="F33" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="E33" s="1">
-        <v>1</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>136</v>
-      </c>
       <c r="G33" s="14" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I33" s="18"/>
       <c r="M33" s="12"/>
@@ -3091,19 +3266,19 @@
         <v>1</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E34" s="1">
         <v>1</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I34" s="18"/>
     </row>
@@ -3118,19 +3293,19 @@
         <v>1</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E35" s="1">
         <v>1</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I35" s="18"/>
     </row>
@@ -3145,19 +3320,19 @@
         <v>1</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E36" s="1">
         <v>1</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I36" s="18"/>
     </row>
@@ -3172,19 +3347,19 @@
         <v>1</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E37" s="1">
         <v>1</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I37" s="18"/>
     </row>
@@ -3199,108 +3374,592 @@
         <v>7</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E38" s="1">
         <v>1</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="H38" s="15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="15"/>
-      <c r="B39" s="1"/>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="15"/>
-      <c r="B40" s="1"/>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="15"/>
-      <c r="B41" s="1"/>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="15"/>
-      <c r="B42" s="1"/>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="15"/>
-      <c r="B43" s="1"/>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="15"/>
-      <c r="B44" s="1"/>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="15"/>
-      <c r="B45" s="1"/>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="15"/>
-      <c r="B46" s="1"/>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="15"/>
-      <c r="B47" s="1"/>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="15"/>
-      <c r="B48" s="1"/>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="15"/>
-      <c r="B49" s="1"/>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="15"/>
-      <c r="B50" s="1"/>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="15"/>
-      <c r="B51" s="1"/>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="15"/>
-      <c r="B52" s="1"/>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="15"/>
-      <c r="B53" s="1"/>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="15"/>
-      <c r="B54" s="1"/>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="15"/>
-      <c r="B55" s="1"/>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="15"/>
-      <c r="B56" s="1"/>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="15"/>
-      <c r="B57" s="1"/>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="15"/>
-      <c r="B58" s="1"/>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="15"/>
-      <c r="B59" s="1"/>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="15"/>
-      <c r="B60" s="1"/>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="5">
+        <v>38</v>
+      </c>
+      <c r="B39" s="13">
+        <v>1000697</v>
+      </c>
+      <c r="C39" s="3">
+        <v>100000</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E39" s="3">
+        <v>1</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="5">
+        <v>39</v>
+      </c>
+      <c r="B40" s="13">
+        <v>1000697</v>
+      </c>
+      <c r="C40" s="3">
+        <v>300000</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E40" s="3">
+        <v>2</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="5">
+        <v>40</v>
+      </c>
+      <c r="B41" s="13">
+        <v>1000697</v>
+      </c>
+      <c r="C41" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E41" s="3">
+        <v>3</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="5">
+        <v>41</v>
+      </c>
+      <c r="B42" s="13">
+        <v>1000697</v>
+      </c>
+      <c r="C42" s="3">
+        <v>3000000</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E42" s="3">
+        <v>4</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="5">
+        <v>42</v>
+      </c>
+      <c r="B43" s="13">
+        <v>1000697</v>
+      </c>
+      <c r="C43" s="3">
+        <v>10000000</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E43" s="3">
+        <v>5</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="5">
+        <v>43</v>
+      </c>
+      <c r="B44" s="13">
+        <v>1000697</v>
+      </c>
+      <c r="C44" s="3">
+        <v>20000000</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E44" s="3">
+        <v>6</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="5">
+        <v>44</v>
+      </c>
+      <c r="B45" s="13">
+        <v>1000697</v>
+      </c>
+      <c r="C45" s="3">
+        <v>35000000</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E45" s="3">
+        <v>7</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="5">
+        <v>45</v>
+      </c>
+      <c r="B46" s="13">
+        <v>1000697</v>
+      </c>
+      <c r="C46" s="3">
+        <v>80000000</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E46" s="3">
+        <v>8</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="5">
+        <v>46</v>
+      </c>
+      <c r="B47" s="13">
+        <v>1000697</v>
+      </c>
+      <c r="C47" s="3">
+        <v>200000000</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E47" s="3">
+        <v>9</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="5">
+        <v>47</v>
+      </c>
+      <c r="B48" s="13">
+        <v>1000697</v>
+      </c>
+      <c r="C48" s="3">
+        <v>800000000</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E48" s="3">
+        <v>10</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="5">
+        <v>48</v>
+      </c>
+      <c r="B49" s="13">
+        <v>1000697</v>
+      </c>
+      <c r="C49" s="3">
+        <v>2000000000</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E49" s="3">
+        <v>11</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="5">
+        <v>49</v>
+      </c>
+      <c r="B50" s="13">
+        <v>1000697</v>
+      </c>
+      <c r="C50" s="3">
+        <v>4000000000</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E50" s="3">
+        <v>12</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="5">
+        <v>50</v>
+      </c>
+      <c r="B51" s="13">
+        <v>1000697</v>
+      </c>
+      <c r="C51" s="3">
+        <v>8000000000</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E51" s="3">
+        <v>13</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="5">
+        <v>51</v>
+      </c>
+      <c r="B52" s="13">
+        <v>1000697</v>
+      </c>
+      <c r="C52" s="3">
+        <v>20000000000</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E52" s="3">
+        <v>14</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="5">
+        <v>52</v>
+      </c>
+      <c r="B53" s="13">
+        <v>1000698</v>
+      </c>
+      <c r="C53" s="3">
+        <v>6</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E53" s="3">
+        <v>1</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="5">
+        <v>53</v>
+      </c>
+      <c r="B54" s="13">
+        <v>1000698</v>
+      </c>
+      <c r="C54" s="3">
+        <v>48</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="5">
+        <v>54</v>
+      </c>
+      <c r="B55" s="13">
+        <v>1000698</v>
+      </c>
+      <c r="C55" s="3">
+        <v>198</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E55" s="3">
+        <v>3</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="5">
+        <v>55</v>
+      </c>
+      <c r="B56" s="13">
+        <v>1000698</v>
+      </c>
+      <c r="C56" s="3">
+        <v>888</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E56" s="3">
+        <v>4</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="5">
+        <v>56</v>
+      </c>
+      <c r="B57" s="13">
+        <v>1000698</v>
+      </c>
+      <c r="C57" s="3">
+        <v>1888</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E57" s="3">
+        <v>5</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="5">
+        <v>57</v>
+      </c>
+      <c r="B58" s="13">
+        <v>1000698</v>
+      </c>
+      <c r="C58" s="3">
+        <v>5888</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E58" s="3">
+        <v>6</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="5">
+        <v>58</v>
+      </c>
+      <c r="B59" s="13">
+        <v>1000698</v>
+      </c>
+      <c r="C59" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E59" s="3">
+        <v>7</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="5">
+        <v>59</v>
+      </c>
+      <c r="B60" s="13">
+        <v>1000698</v>
+      </c>
+      <c r="C60" s="3">
+        <v>18888</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E60" s="3">
+        <v>8</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="15"/>
@@ -3426,70 +4085,70 @@
       <c r="A91" s="15"/>
       <c r="B91" s="20"/>
       <c r="L91" s="3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="M91" s="3" t="s">
-        <v>152</v>
+        <v>198</v>
       </c>
     </row>
     <row r="92" spans="1:13">
       <c r="A92" s="15"/>
       <c r="B92" s="20"/>
       <c r="L92" s="3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="M92" s="3" t="s">
-        <v>153</v>
+        <v>199</v>
       </c>
     </row>
     <row r="93" spans="1:13">
       <c r="A93" s="15"/>
       <c r="B93" s="20"/>
       <c r="L93" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="M93" s="3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="94" spans="1:13">
       <c r="A94" s="15"/>
       <c r="B94" s="20"/>
       <c r="L94" s="3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="M94" s="3" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="95" spans="1:13">
       <c r="A95" s="15"/>
       <c r="B95" s="20"/>
       <c r="L95" s="3" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M95" s="3" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="96" spans="1:13">
       <c r="A96" s="15"/>
       <c r="B96" s="20"/>
       <c r="L96" s="3" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="M96" s="3" t="s">
-        <v>154</v>
+        <v>200</v>
       </c>
     </row>
     <row r="97" spans="1:13">
       <c r="A97" s="15"/>
       <c r="B97" s="20"/>
       <c r="L97" s="3" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M97" s="3" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="98" spans="1:2">

--- a/config_6.29/activity_ty_task_config.xlsx
+++ b/config_6.29/activity_ty_task_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="base|基础" sheetId="6" r:id="rId1"/>
@@ -575,12 +575,15 @@
     <t>1000,</t>
   </si>
   <si>
+    <t>商城累计充值6元</t>
+  </si>
+  <si>
+    <t>"shop_gold_sum",</t>
+  </si>
+  <si>
     <t>累计消耗100万金币</t>
   </si>
   <si>
-    <t>"shop_gold_sum",</t>
-  </si>
-  <si>
     <t>28,</t>
   </si>
   <si>
@@ -590,6 +593,12 @@
     <t>3,</t>
   </si>
   <si>
+    <t>商城累计充值48元</t>
+  </si>
+  <si>
+    <t>8000,</t>
+  </si>
+  <si>
     <t>累计消耗1000万金币</t>
   </si>
   <si>
@@ -602,6 +611,12 @@
     <t>188,</t>
   </si>
   <si>
+    <t>商城累计充值198元</t>
+  </si>
+  <si>
+    <t>18888,</t>
+  </si>
+  <si>
     <t>累计消耗3500万金币</t>
   </si>
   <si>
@@ -614,6 +629,12 @@
     <t>60,</t>
   </si>
   <si>
+    <t>商城累计充值888元</t>
+  </si>
+  <si>
+    <t>12000,</t>
+  </si>
+  <si>
     <t>累计消耗2亿金币</t>
   </si>
   <si>
@@ -626,67 +647,46 @@
     <t>80,</t>
   </si>
   <si>
+    <t>商城累计充值1888元</t>
+  </si>
+  <si>
+    <t>21888,</t>
+  </si>
+  <si>
     <t>累计消耗20亿金币</t>
   </si>
   <si>
     <t>200,</t>
   </si>
   <si>
+    <t>商城累计充值5888元</t>
+  </si>
+  <si>
+    <t>20000,</t>
+  </si>
+  <si>
     <t>累计消耗40亿金币</t>
   </si>
   <si>
+    <t>商城累计充值10000元</t>
+  </si>
+  <si>
+    <t>48888,</t>
+  </si>
+  <si>
     <t>累计消耗80亿金币</t>
   </si>
   <si>
+    <t>商城累计充值18888元</t>
+  </si>
+  <si>
+    <t>50000,</t>
+  </si>
+  <si>
     <t>累计消耗200亿金币</t>
   </si>
   <si>
     <t>2000,</t>
-  </si>
-  <si>
-    <t>商城累计充值6元</t>
-  </si>
-  <si>
-    <t>商城累计充值48元</t>
-  </si>
-  <si>
-    <t>8000,</t>
-  </si>
-  <si>
-    <t>商城累计充值198元</t>
-  </si>
-  <si>
-    <t>18888,</t>
-  </si>
-  <si>
-    <t>商城累计充值888元</t>
-  </si>
-  <si>
-    <t>12000,</t>
-  </si>
-  <si>
-    <t>商城累计充值1888元</t>
-  </si>
-  <si>
-    <t>21888,</t>
-  </si>
-  <si>
-    <t>商城累计充值5888元</t>
-  </si>
-  <si>
-    <t>20000,</t>
-  </si>
-  <si>
-    <t>商城累计充值10000元</t>
-  </si>
-  <si>
-    <t>48888,</t>
-  </si>
-  <si>
-    <t>商城累计充值18888元</t>
-  </si>
-  <si>
-    <t>50000,</t>
   </si>
   <si>
     <t>"美的智能风扇",</t>
@@ -703,12 +703,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -726,6 +726,13 @@
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -753,82 +760,17 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -850,11 +792,93 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -866,31 +890,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -929,6 +936,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -959,7 +972,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -971,25 +1014,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1001,67 +1074,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1079,7 +1092,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1091,31 +1128,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1140,6 +1153,41 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1174,39 +1222,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1225,19 +1240,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1247,150 +1260,150 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1433,30 +1446,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="49" applyFill="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="49" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="31" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="31" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1779,7 +1798,7 @@
   <sheetPr/>
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
@@ -1796,62 +1815,62 @@
     <col min="9" max="9" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="21" customFormat="1" spans="1:7">
-      <c r="A1" s="23" t="s">
+    <row r="1" s="23" customFormat="1" spans="1:7">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="23" t="s">
+      <c r="B1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="25" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:7">
-      <c r="A2" s="25">
-        <v>1</v>
-      </c>
-      <c r="B2" s="27" t="s">
+      <c r="A2" s="27">
+        <v>1</v>
+      </c>
+      <c r="B2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="27">
-        <v>1</v>
-      </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
+      <c r="E2" s="29">
+        <v>1</v>
+      </c>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
     </row>
     <row r="3" ht="15.75" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="29">
+      <c r="E3" s="31">
         <v>2</v>
       </c>
     </row>
@@ -1859,16 +1878,16 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="31">
         <v>3</v>
       </c>
     </row>
@@ -1876,16 +1895,16 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="31">
         <v>4</v>
       </c>
     </row>
@@ -1893,16 +1912,16 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="31">
         <v>5</v>
       </c>
     </row>
@@ -1910,16 +1929,16 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="31">
         <v>6</v>
       </c>
     </row>
@@ -1927,13 +1946,13 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="29" t="s">
         <v>24</v>
       </c>
       <c r="E8">
@@ -1947,7 +1966,7 @@
       <c r="B9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="34" t="s">
         <v>26</v>
       </c>
       <c r="D9" t="s">
@@ -1998,156 +2017,156 @@
     <col min="4" max="4" width="23.875" customWidth="1"/>
     <col min="5" max="5" width="10.125" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="31.875" style="22" customWidth="1"/>
+    <col min="7" max="7" width="31.875" style="24" customWidth="1"/>
     <col min="8" max="8" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="21" customFormat="1" spans="1:7">
-      <c r="A1" s="21" t="s">
+    <row r="1" s="23" customFormat="1" spans="1:7">
+      <c r="A1" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="26" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="25">
-        <v>1</v>
-      </c>
-      <c r="B2" s="26" t="s">
+      <c r="A2" s="27">
+        <v>1</v>
+      </c>
+      <c r="B2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="26">
-        <v>1</v>
-      </c>
-      <c r="D2" s="26">
+      <c r="C2" s="28">
+        <v>1</v>
+      </c>
+      <c r="D2" s="28">
         <v>0</v>
       </c>
-      <c r="E2" s="26">
-        <v>1</v>
-      </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26" t="s">
+      <c r="E2" s="28">
+        <v>1</v>
+      </c>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="25">
+      <c r="A3" s="27">
         <v>2</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="26">
-        <v>1</v>
-      </c>
-      <c r="D3" s="26">
-        <v>1</v>
-      </c>
-      <c r="E3" s="26">
-        <v>1</v>
-      </c>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26" t="s">
+      <c r="C3" s="28">
+        <v>1</v>
+      </c>
+      <c r="D3" s="28">
+        <v>1</v>
+      </c>
+      <c r="E3" s="28">
+        <v>1</v>
+      </c>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="25">
+      <c r="A4" s="27">
         <v>3</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="30">
         <v>0</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="30">
         <v>0</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="31">
         <v>0</v>
       </c>
-      <c r="F4" s="27"/>
-      <c r="G4" s="30"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="32"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="31">
+      <c r="A5" s="33">
         <v>4</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="31">
         <v>0</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="31">
         <v>0</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="31">
         <v>0</v>
       </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="30"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="32"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="25">
+      <c r="A6" s="27">
         <v>5</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="28">
+      <c r="C6" s="30">
         <v>0</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="31">
         <v>0</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="31">
         <v>0</v>
       </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="30"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="32"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="25">
+      <c r="A7" s="27">
         <v>6</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="31">
         <v>0</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="31">
         <v>0</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="31">
         <v>0</v>
       </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="30"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="32"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="29" t="s">
         <v>22</v>
       </c>
       <c r="C8">
@@ -2159,7 +2178,7 @@
       <c r="E8">
         <v>1</v>
       </c>
-      <c r="G8" s="30"/>
+      <c r="G8" s="32"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
@@ -2177,7 +2196,7 @@
       <c r="E9">
         <v>1</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="G9" s="24" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2197,7 +2216,7 @@
       <c r="E10">
         <v>1</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="G10" s="24" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2213,10 +2232,10 @@
   <sheetPr/>
   <dimension ref="A1:S107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A60" sqref="A60"/>
+      <selection pane="bottomLeft" activeCell="L60" sqref="L60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -2292,13 +2311,13 @@
       <c r="P1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="Q1" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="R1" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="S1" s="19" t="s">
+      <c r="S1" s="21" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2330,7 +2349,7 @@
       <c r="I2" s="5"/>
       <c r="M2" s="8"/>
       <c r="O2" s="8"/>
-      <c r="P2" s="16"/>
+      <c r="P2" s="18"/>
       <c r="Q2" s="8"/>
       <c r="R2" s="8"/>
       <c r="S2" s="8"/>
@@ -2366,7 +2385,7 @@
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
       <c r="O3" s="8"/>
-      <c r="P3" s="17"/>
+      <c r="P3" s="19"/>
       <c r="R3" s="8"/>
       <c r="S3" s="8"/>
     </row>
@@ -2399,7 +2418,7 @@
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
       <c r="O4" s="8"/>
-      <c r="P4" s="17"/>
+      <c r="P4" s="19"/>
       <c r="R4" s="8"/>
       <c r="S4" s="8"/>
     </row>
@@ -2432,7 +2451,7 @@
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="O5" s="8"/>
-      <c r="P5" s="17"/>
+      <c r="P5" s="19"/>
       <c r="R5" s="8"/>
       <c r="S5" s="8"/>
     </row>
@@ -2465,7 +2484,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="O6" s="8"/>
-      <c r="P6" s="17"/>
+      <c r="P6" s="19"/>
       <c r="R6" s="8"/>
       <c r="S6" s="8"/>
     </row>
@@ -2498,7 +2517,7 @@
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="O7" s="8"/>
-      <c r="P7" s="17"/>
+      <c r="P7" s="19"/>
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
@@ -3107,7 +3126,7 @@
       <c r="H28" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="I28" s="18"/>
+      <c r="I28" s="20"/>
       <c r="L28" s="2" t="s">
         <v>132</v>
       </c>
@@ -3140,7 +3159,7 @@
       <c r="H29" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="I29" s="18"/>
+      <c r="I29" s="20"/>
     </row>
     <row r="30" s="2" customFormat="1" spans="1:9">
       <c r="A30" s="5">
@@ -3167,7 +3186,7 @@
       <c r="H30" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="I30" s="18"/>
+      <c r="I30" s="20"/>
     </row>
     <row r="31" s="2" customFormat="1" spans="1:15">
       <c r="A31" s="5">
@@ -3194,7 +3213,7 @@
       <c r="H31" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="I31" s="18"/>
+      <c r="I31" s="20"/>
       <c r="M31" s="12"/>
       <c r="O31" s="12"/>
     </row>
@@ -3223,7 +3242,7 @@
       <c r="H32" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="I32" s="18"/>
+      <c r="I32" s="20"/>
       <c r="M32" s="12"/>
       <c r="O32" s="12"/>
     </row>
@@ -3252,7 +3271,7 @@
       <c r="H33" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="I33" s="18"/>
+      <c r="I33" s="20"/>
       <c r="M33" s="12"/>
     </row>
     <row r="34" s="2" customFormat="1" spans="1:9">
@@ -3280,7 +3299,7 @@
       <c r="H34" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="I34" s="18"/>
+      <c r="I34" s="20"/>
     </row>
     <row r="35" s="2" customFormat="1" spans="1:9">
       <c r="A35" s="5">
@@ -3307,7 +3326,7 @@
       <c r="H35" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="I35" s="18"/>
+      <c r="I35" s="20"/>
     </row>
     <row r="36" s="2" customFormat="1" spans="1:9">
       <c r="A36" s="5">
@@ -3334,7 +3353,7 @@
       <c r="H36" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="I36" s="18"/>
+      <c r="I36" s="20"/>
     </row>
     <row r="37" s="2" customFormat="1" spans="1:9">
       <c r="A37" s="5">
@@ -3361,7 +3380,7 @@
       <c r="H37" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="I37" s="18"/>
+      <c r="I37" s="20"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="5">
@@ -3399,13 +3418,13 @@
       <c r="C39" s="3">
         <v>100000</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="16" t="s">
         <v>156</v>
       </c>
       <c r="E39" s="3">
         <v>1</v>
       </c>
-      <c r="F39" s="12" t="s">
+      <c r="F39" s="17" t="s">
         <v>140</v>
       </c>
       <c r="G39" s="3" t="s">
@@ -3431,7 +3450,7 @@
       <c r="E40" s="3">
         <v>2</v>
       </c>
-      <c r="F40" s="12" t="s">
+      <c r="F40" s="17" t="s">
         <v>140</v>
       </c>
       <c r="G40" s="3" t="s">
@@ -3443,51 +3462,51 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="5">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="B41" s="13">
-        <v>1000697</v>
+        <v>1000698</v>
       </c>
       <c r="C41" s="3">
-        <v>1000000</v>
+        <v>6</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>160</v>
       </c>
       <c r="E41" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>161</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="5">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="13">
         <v>1000697</v>
       </c>
       <c r="C42" s="3">
-        <v>3000000</v>
+        <v>1000000</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E42" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>161</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H42" s="5" t="s">
         <v>81</v>
@@ -3495,25 +3514,25 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="5">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="13">
         <v>1000697</v>
       </c>
       <c r="C43" s="3">
-        <v>10000000</v>
+        <v>3000000</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E43" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>161</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H43" s="5" t="s">
         <v>81</v>
@@ -3521,51 +3540,51 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="5">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B44" s="13">
-        <v>1000697</v>
+        <v>1000698</v>
       </c>
       <c r="C44" s="3">
-        <v>20000000</v>
+        <v>48</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E44" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>161</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="5">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B45" s="13">
         <v>1000697</v>
       </c>
       <c r="C45" s="3">
-        <v>35000000</v>
+        <v>10000000</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E45" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>161</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H45" s="5" t="s">
         <v>81</v>
@@ -3573,25 +3592,25 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="5">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B46" s="13">
         <v>1000697</v>
       </c>
       <c r="C46" s="3">
-        <v>80000000</v>
+        <v>20000000</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E46" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>161</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H46" s="5" t="s">
         <v>81</v>
@@ -3599,51 +3618,51 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="5">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B47" s="13">
-        <v>1000697</v>
+        <v>1000698</v>
       </c>
       <c r="C47" s="3">
-        <v>200000000</v>
+        <v>198</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E47" s="3">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>161</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="5">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B48" s="13">
         <v>1000697</v>
       </c>
       <c r="C48" s="3">
-        <v>800000000</v>
+        <v>35000000</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E48" s="3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>161</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H48" s="5" t="s">
         <v>81</v>
@@ -3651,25 +3670,25 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="5">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B49" s="13">
         <v>1000697</v>
       </c>
       <c r="C49" s="3">
-        <v>2000000000</v>
+        <v>80000000</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E49" s="3">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>161</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H49" s="5" t="s">
         <v>81</v>
@@ -3677,51 +3696,51 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="5">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B50" s="13">
-        <v>1000697</v>
+        <v>1000698</v>
       </c>
       <c r="C50" s="3">
-        <v>4000000000</v>
+        <v>888</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E50" s="3">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>161</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>145</v>
+        <v>179</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="5">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B51" s="13">
         <v>1000697</v>
       </c>
       <c r="C51" s="3">
-        <v>8000000000</v>
+        <v>200000000</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>180</v>
       </c>
       <c r="E51" s="3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>161</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="H51" s="5" t="s">
         <v>81</v>
@@ -3729,25 +3748,25 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="5">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B52" s="13">
         <v>1000697</v>
       </c>
       <c r="C52" s="3">
-        <v>20000000000</v>
+        <v>800000000</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E52" s="3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>161</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H52" s="5" t="s">
         <v>81</v>
@@ -3755,25 +3774,25 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="5">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B53" s="13">
         <v>1000698</v>
       </c>
       <c r="C53" s="3">
-        <v>6</v>
+        <v>1888</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E53" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>161</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>147</v>
+        <v>185</v>
       </c>
       <c r="H53" s="5" t="s">
         <v>101</v>
@@ -3781,51 +3800,51 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="5">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B54" s="13">
-        <v>1000698</v>
+        <v>1000697</v>
       </c>
       <c r="C54" s="3">
-        <v>48</v>
+        <v>2000000000</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E54" s="3">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>161</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="5">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B55" s="13">
         <v>1000698</v>
       </c>
       <c r="C55" s="3">
-        <v>198</v>
+        <v>5888</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E55" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>161</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H55" s="5" t="s">
         <v>101</v>
@@ -3833,51 +3852,51 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="5">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B56" s="13">
-        <v>1000698</v>
+        <v>1000697</v>
       </c>
       <c r="C56" s="3">
-        <v>888</v>
+        <v>4000000000</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E56" s="3">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>161</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>189</v>
+        <v>145</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="5">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57" s="13">
         <v>1000698</v>
       </c>
       <c r="C57" s="3">
-        <v>1888</v>
+        <v>10000</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E57" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>161</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H57" s="5" t="s">
         <v>101</v>
@@ -3885,45 +3904,45 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="5">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B58" s="13">
-        <v>1000698</v>
+        <v>1000697</v>
       </c>
       <c r="C58" s="3">
-        <v>5888</v>
+        <v>8000000000</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E58" s="3">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>161</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>193</v>
+        <v>157</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="5">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B59" s="13">
         <v>1000698</v>
       </c>
       <c r="C59" s="3">
-        <v>10000</v>
+        <v>18888</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>194</v>
       </c>
       <c r="E59" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>161</v>
@@ -3937,19 +3956,19 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="5">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B60" s="13">
-        <v>1000698</v>
+        <v>1000697</v>
       </c>
       <c r="C60" s="3">
-        <v>18888</v>
+        <v>20000000000</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>196</v>
       </c>
       <c r="E60" s="3">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>161</v>
@@ -3958,7 +3977,7 @@
         <v>197</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -4003,87 +4022,87 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="15"/>
-      <c r="B71" s="20"/>
+      <c r="B71" s="22"/>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="15"/>
-      <c r="B72" s="20"/>
+      <c r="B72" s="22"/>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="15"/>
-      <c r="B73" s="20"/>
+      <c r="B73" s="22"/>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="15"/>
-      <c r="B74" s="20"/>
+      <c r="B74" s="22"/>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="15"/>
-      <c r="B75" s="20"/>
+      <c r="B75" s="22"/>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="15"/>
-      <c r="B76" s="20"/>
+      <c r="B76" s="22"/>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="15"/>
-      <c r="B77" s="20"/>
+      <c r="B77" s="22"/>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="15"/>
-      <c r="B78" s="20"/>
+      <c r="B78" s="22"/>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="15"/>
-      <c r="B79" s="20"/>
+      <c r="B79" s="22"/>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="15"/>
-      <c r="B80" s="20"/>
+      <c r="B80" s="22"/>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="15"/>
-      <c r="B81" s="20"/>
+      <c r="B81" s="22"/>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="15"/>
-      <c r="B82" s="20"/>
+      <c r="B82" s="22"/>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="15"/>
-      <c r="B83" s="20"/>
+      <c r="B83" s="22"/>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="15"/>
-      <c r="B84" s="20"/>
+      <c r="B84" s="22"/>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="15"/>
-      <c r="B85" s="20"/>
+      <c r="B85" s="22"/>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="15"/>
-      <c r="B86" s="20"/>
+      <c r="B86" s="22"/>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="15"/>
-      <c r="B87" s="20"/>
+      <c r="B87" s="22"/>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="15"/>
-      <c r="B88" s="20"/>
+      <c r="B88" s="22"/>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="15"/>
-      <c r="B89" s="20"/>
+      <c r="B89" s="22"/>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="15"/>
-      <c r="B90" s="20"/>
+      <c r="B90" s="22"/>
     </row>
     <row r="91" spans="1:13">
       <c r="A91" s="15"/>
-      <c r="B91" s="20"/>
+      <c r="B91" s="22"/>
       <c r="L91" s="3" t="s">
         <v>102</v>
       </c>
@@ -4093,7 +4112,7 @@
     </row>
     <row r="92" spans="1:13">
       <c r="A92" s="15"/>
-      <c r="B92" s="20"/>
+      <c r="B92" s="22"/>
       <c r="L92" s="3" t="s">
         <v>107</v>
       </c>
@@ -4103,7 +4122,7 @@
     </row>
     <row r="93" spans="1:13">
       <c r="A93" s="15"/>
-      <c r="B93" s="20"/>
+      <c r="B93" s="22"/>
       <c r="L93" s="3" t="s">
         <v>112</v>
       </c>
@@ -4113,7 +4132,7 @@
     </row>
     <row r="94" spans="1:13">
       <c r="A94" s="15"/>
-      <c r="B94" s="20"/>
+      <c r="B94" s="22"/>
       <c r="L94" s="3" t="s">
         <v>117</v>
       </c>
@@ -4123,7 +4142,7 @@
     </row>
     <row r="95" spans="1:13">
       <c r="A95" s="15"/>
-      <c r="B95" s="20"/>
+      <c r="B95" s="22"/>
       <c r="L95" s="3" t="s">
         <v>122</v>
       </c>
@@ -4133,7 +4152,7 @@
     </row>
     <row r="96" spans="1:13">
       <c r="A96" s="15"/>
-      <c r="B96" s="20"/>
+      <c r="B96" s="22"/>
       <c r="L96" s="3" t="s">
         <v>127</v>
       </c>
@@ -4143,7 +4162,7 @@
     </row>
     <row r="97" spans="1:13">
       <c r="A97" s="15"/>
-      <c r="B97" s="20"/>
+      <c r="B97" s="22"/>
       <c r="L97" s="3" t="s">
         <v>132</v>
       </c>
@@ -4153,43 +4172,43 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="15"/>
-      <c r="B98" s="20"/>
+      <c r="B98" s="22"/>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="15"/>
-      <c r="B99" s="20"/>
+      <c r="B99" s="22"/>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="15"/>
-      <c r="B100" s="20"/>
+      <c r="B100" s="22"/>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="15"/>
-      <c r="B101" s="20"/>
+      <c r="B101" s="22"/>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="15"/>
-      <c r="B102" s="20"/>
+      <c r="B102" s="22"/>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="15"/>
-      <c r="B103" s="20"/>
+      <c r="B103" s="22"/>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="15"/>
-      <c r="B104" s="20"/>
+      <c r="B104" s="22"/>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="15"/>
-      <c r="B105" s="20"/>
+      <c r="B105" s="22"/>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="15"/>
-      <c r="B106" s="20"/>
+      <c r="B106" s="22"/>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="15"/>
-      <c r="B107" s="20"/>
+      <c r="B107" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_6.29/activity_ty_task_config.xlsx
+++ b/config_6.29/activity_ty_task_config.xlsx
@@ -703,10 +703,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -761,14 +761,28 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -777,15 +791,60 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -800,77 +859,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -882,16 +889,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -972,7 +972,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -984,7 +984,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -996,19 +1014,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1020,7 +1068,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1032,103 +1110,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1157,36 +1157,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1207,17 +1187,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1254,16 +1228,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1272,133 +1272,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -2232,10 +2232,10 @@
   <sheetPr/>
   <dimension ref="A1:S107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L60" sqref="L60"/>
+      <selection pane="bottomLeft" activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -3468,7 +3468,7 @@
         <v>1000698</v>
       </c>
       <c r="C41" s="3">
-        <v>6</v>
+        <v>600</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>160</v>
@@ -3546,7 +3546,7 @@
         <v>1000698</v>
       </c>
       <c r="C44" s="3">
-        <v>48</v>
+        <v>4800</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>166</v>
@@ -3624,7 +3624,7 @@
         <v>1000698</v>
       </c>
       <c r="C47" s="3">
-        <v>198</v>
+        <v>19800</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>172</v>
@@ -3702,7 +3702,7 @@
         <v>1000698</v>
       </c>
       <c r="C50" s="3">
-        <v>888</v>
+        <v>88800</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>178</v>
@@ -3780,7 +3780,7 @@
         <v>1000698</v>
       </c>
       <c r="C53" s="3">
-        <v>1888</v>
+        <v>188800</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>184</v>
@@ -3832,7 +3832,7 @@
         <v>1000698</v>
       </c>
       <c r="C55" s="3">
-        <v>5888</v>
+        <v>588800</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>188</v>
@@ -3884,7 +3884,7 @@
         <v>1000698</v>
       </c>
       <c r="C57" s="3">
-        <v>10000</v>
+        <v>1000000</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>191</v>
@@ -3936,7 +3936,7 @@
         <v>1000698</v>
       </c>
       <c r="C59" s="3">
-        <v>18888</v>
+        <v>1888800</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>194</v>
